--- a/Fuel_experiment/tabla final.xlsx
+++ b/Fuel_experiment/tabla final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRepo\Python_developer\Fuel_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C53D5A1-A7B9-4818-A548-2A74B324A78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DA722C-CEAB-41EE-B7C3-1CBC8FDE3981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4C7B5776-63B1-4530-9C74-FECA6C6834F9}"/>
   </bookViews>
@@ -482,14 +482,14 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="2" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" customWidth="1"/>
   </cols>
